--- a/tables/rsearch.xlsx
+++ b/tables/rsearch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/rsources-book-en/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DFE50E-5109-2C42-9E70-29ACD21A82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202847F6-F793-A24E-9CB6-254FBF454300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>title</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>monthly selection of the 40 best CRAN libraries</t>
+  </si>
+  <si>
+    <t>R packages documentation</t>
+  </si>
+  <si>
+    <t>https://r-packages.io/</t>
+  </si>
+  <si>
+    <t>The easiest way to discover and search the documentation of all CRAN packages</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,6 +572,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
